--- a/worksheets/images-sources.xlsx
+++ b/worksheets/images-sources.xlsx
@@ -73,37 +73,37 @@
     <t>https://lh3.googleusercontent.com/-qFWPPMt3KVk/AAAAAAAAAAI/AAAAAAAAAAA/tG5jZLh9lAk/w320-h180-p/photo.jpg</t>
   </si>
   <si>
-    <t>//lh3.googleusercontent.com/-ezxg1AKerls/AAAAAAAAAAI/AAAAAAAABUQ/PrpjD_B-s-U/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-I5BBkCf6c3k/AAAAAAAAAAI/AAAAAAAAACs/9D4DxGhv2_Q/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-j4bNVt8JzAA/AAAAAAAAAAI/AAAAAAAAAxU/98QhN0pGGXs/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-yKOyKJub6qY/AAAAAAAAAAI/AAAAAAAAADo/gsCj_j8bzcY/s24-p-k-no/photo.jpg</t>
+    <t>//lh3.googleusercontent.com/-U0fi_VXLGJk/AAAAAAAAAAI/AAAAAAAAIfA/hvNf7unpB0k/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-w8imrWdI1SY/AAAAAAAAAAI/AAAAAAAAENM/dHHsDj-4yCk/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-cSVcnN4nCPw/AAAAAAAAAAI/AAAAAAAAA6c/JFImZHh26SA/s24-p-k-no/photo.jpg</t>
   </si>
   <si>
     <t>//www.gstatic.com/s2/oz/images/communities/noprofile_icon_72px.png</t>
   </si>
   <si>
+    <t>//lh3.googleusercontent.com/-U2DexrUJaO0/AAAAAAAAAAI/AAAAAAAAQ2k/oMQhmpLQOLE/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
     <t>https://lh3.googleusercontent.com/-ZD7MtakViMc/AAAAAAAAAAI/AAAAAAAAAAA/NiwTLAEqxP8/w320-h180-p/photo.jpg</t>
   </si>
   <si>
-    <t>//lh3.googleusercontent.com/-Xh5Zirmok_U/AAAAAAAAAAI/AAAAAAAA3cM/isxm_aOz_lo/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-MiEiuIqSxzg/AAAAAAAAAAI/AAAAAAAACYg/q4VA2-SA0Ik/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-rc5MHEXZTxA/AAAAAAAAAAI/AAAAAAAACJM/IjcQcBWzUYQ/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-DEIiPJ2KvaI/AAAAAAAAAAI/AAAAAAAAAgg/61LSJRhI3Qk/s24-p-k-no/photo.jpg</t>
-  </si>
-  <si>
-    <t>//lh3.googleusercontent.com/-4UfVNUx_1Yg/AAAAAAAAAAI/AAAAAAAARCI/qljupMUUEt4/s24-p-k-no/photo.jpg</t>
+    <t>//lh3.googleusercontent.com/-riTmBMLQ5NE/AAAAAAAAAAI/AAAAAAAAIMg/cVo3kNr1IPA/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-SAftP6CGBbI/AAAAAAAAAAI/AAAAAAABeOg/0W3wD26nW5E/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-BxvSQwmDiSA/AAAAAAAAAAI/AAAAAAAA5Ns/uNrawrFAA4g/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-4UfVNUx_1Yg/AAAAAAAAAAI/AAAAAAAAR40/6q882LAJxtU/s24-p-k-no/photo.jpg</t>
+  </si>
+  <si>
+    <t>//lh3.googleusercontent.com/-4NWWyggwuVY/AAAAAAAAAAI/AAAAAAAAACQ/RXnFKOF2u2c/s24-p-k-no/photo.jpg</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/-6-P4aRtOPhU/AAAAAAAAAAI/AAAAAAAAAAA/DVMNuSa4zWM/w320-h180-p/photo.jpg</t>
